--- a/doc/ue_MobileContentScaleFactor.xlsx
+++ b/doc/ue_MobileContentScaleFactor.xlsx
@@ -1,13 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D910E7C-17B7-43AD-92D8-C52EB2DB5071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="r.ScreenPercentage" sheetId="2" r:id="rId2"/>
+    <sheet name="r.MobileContentScaleFactor" sheetId="3" r:id="rId3"/>
+    <sheet name="viewport" sheetId="4" r:id="rId4"/>
+    <sheet name="IOS点击屏幕位置缩放" sheetId="5" r:id="rId5"/>
+    <sheet name="Android点击屏幕位置缩放" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +29,389 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+  <si>
+    <t>class FViewInfo : public FSceneView</t>
+  </si>
+  <si>
+    <t>FIntRect ViewRect;</t>
+  </si>
+  <si>
+    <t>/* Final position of the view in the final render target (in pixels), potentially scaled by ScreenPercentage */</t>
+  </si>
+  <si>
+    <t>void FLegacyScreenPercentageDriver::ComputePrimaryResolutionFractions_RenderThread(</t>
+  </si>
+  <si>
+    <t>TArray&lt;FSceneViewScreenPercentageConfig&gt;&amp; OutViewScreenPercentageConfigs) const</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>check(IsInRenderingThread());</t>
+  </si>
+  <si>
+    <t>// Early return if no screen percentage should be done.</t>
+  </si>
+  <si>
+    <t>if (!ViewFamily.EngineShowFlags.ScreenPercentage)</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>for (int32 i = 0; i &lt; ViewFamily.Views.Num(); i++)</t>
+  </si>
+  <si>
+    <t>float ResolutionFraction = GlobalResolutionFraction;</t>
+  </si>
+  <si>
+    <t>if (AllowPostProcessSettingsScreenPercentage)</t>
+  </si>
+  <si>
+    <t>ResolutionFraction *= ViewFamily.Views[i]-&gt;FinalPostProcessSettings.ScreenPercentage / 100.0f;</t>
+  </si>
+  <si>
+    <t>OutViewScreenPercentageConfigs[i].PrimaryResolutionFraction = FMath::Clamp(</t>
+  </si>
+  <si>
+    <t>ResolutionFraction,</t>
+  </si>
+  <si>
+    <t>FSceneViewScreenPercentageConfig::kMinResolutionFraction,</t>
+  </si>
+  <si>
+    <t>FSceneViewScreenPercentageConfig::kMaxResolutionFraction);</t>
+  </si>
+  <si>
+    <t>影响面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！这里赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FDeferredShadingSceneRenderer::Render(FRHICommandListImmediate&amp; RHICmdList)</t>
+  </si>
+  <si>
+    <t>PrepareViewRectsForRendering(RHICmdList);</t>
+  </si>
+  <si>
+    <t>void FSceneRenderer::PrepareViewRectsForRendering(FRHICommandListImmediate&amp; RHICmdList)</t>
+  </si>
+  <si>
+    <t>设置给ViewSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View.ViewRect</t>
+  </si>
+  <si>
+    <t>void FSceneRenderer::ComputeFamilySize()</t>
+  </si>
+  <si>
+    <t>设置FamilySize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHICmdList.SetViewport(View.ViewRect.Min.X, View.ViewRect.Min.Y, 0.0f, View.ViewRect.Max.X, View.ViewRect.Max.Y, 1.0f);</t>
+  </si>
+  <si>
+    <t>！！！没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AddPostProcessingPasses(FRDGBuilder&amp; GraphBuilder, const FViewInfo&amp; View, int32 ViewIndex, const FPostProcessingInputs&amp; Inputs)</t>
+  </si>
+  <si>
+    <t>PassSequence.SetEnabled(EPass::PrimaryUpscale, PaniniConfig.IsEnabled() || (View.PrimaryScreenPercentageMethod == EPrimaryScreenPercentageMethod::SpatialUpscale &amp;&amp; PrimaryViewRect.Size() != View.GetSecondaryViewRectSize()));</t>
+  </si>
+  <si>
+    <t>如果两个大小不一致，则设置属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (PassSequence.IsEnabled(EPass::PrimaryUpscale))</t>
+  </si>
+  <si>
+    <t>ISpatialUpscaler::FInputs PassInputs;</t>
+  </si>
+  <si>
+    <t>PassSequence.AcceptOverrideIfLastPass(EPass::PrimaryUpscale, PassInputs.OverrideOutput);</t>
+  </si>
+  <si>
+    <t>PassInputs.SceneColor = SceneColor;</t>
+  </si>
+  <si>
+    <t>PassInputs.Stage = PassSequence.IsEnabled(EPass::SecondaryUpscale) ? EUpscaleStage::PrimaryToSecondary : EUpscaleStage::PrimaryToOutput;</t>
+  </si>
+  <si>
+    <t>if (const ISpatialUpscaler* CustomUpscaler = View.Family-&gt;GetPrimarySpatialUpscalerInterface())</t>
+  </si>
+  <si>
+    <t>RDG_EVENT_SCOPE(</t>
+  </si>
+  <si>
+    <t>GraphBuilder,</t>
+  </si>
+  <si>
+    <t>ThirdParty PrimaryUpscale %s %dx%d -&gt; %dx%d,</t>
+  </si>
+  <si>
+    <t>CustomUpscaler-&gt;GetDebugName(),</t>
+  </si>
+  <si>
+    <t>SceneColor.ViewRect.Width(), SceneColor.ViewRect.Height(),</t>
+  </si>
+  <si>
+    <t>View.GetSecondaryViewRectSize().X, View.GetSecondaryViewRectSize().Y);</t>
+  </si>
+  <si>
+    <t>SceneColor = CustomUpscaler-&gt;AddPasses(GraphBuilder, View, PassInputs);</t>
+  </si>
+  <si>
+    <t>if (PassSequence.IsLastPass(EPass::PrimaryUpscale))</t>
+  </si>
+  <si>
+    <t>check(SceneColor == ViewFamilyOutput);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>check(SceneColor.ViewRect.Size() == View.GetSecondaryViewRectSize());</t>
+  </si>
+  <si>
+    <t>EUpscaleMethod Method = GetUpscaleMethod();</t>
+  </si>
+  <si>
+    <t>SceneColor = ISpatialUpscaler::AddDefaultUpscalePass(GraphBuilder, View, PassInputs, Method, PaniniConfig);</t>
+  </si>
+  <si>
+    <t>！！！增加后处理，内部会进行缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响的时场景渲染的时候修改ViewPort，最终通过后处理缩放在屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FScreenPassTexture ISpatialUpscaler::AddDefaultUpscalePass(</t>
+  </si>
+  <si>
+    <t>FRDGBuilder&amp; GraphBuilder,</t>
+  </si>
+  <si>
+    <t>const FViewInfo&amp; View,</t>
+  </si>
+  <si>
+    <t>const FInputs&amp; Inputs,</t>
+  </si>
+  <si>
+    <t>EUpscaleMethod Method,</t>
+  </si>
+  <si>
+    <t>FPaniniProjectionConfig PaniniConfig)</t>
+  </si>
+  <si>
+    <t>DrawRectangle(</t>
+  </si>
+  <si>
+    <t>RHICmdList,</t>
+  </si>
+  <si>
+    <t>// Output Rect (RHI viewport relative).</t>
+  </si>
+  <si>
+    <t>0, 0, OutputViewport.Rect.Width(), OutputViewport.Rect.Height(),</t>
+  </si>
+  <si>
+    <t>// Input Rect</t>
+  </si>
+  <si>
+    <t>InputViewport.Rect.Min.X, InputViewport.Rect.Min.Y, InputViewport.Rect.Width(), InputViewport.Rect.Height(),</t>
+  </si>
+  <si>
+    <t>OutputViewport.Rect.Size(),</t>
+  </si>
+  <si>
+    <t>InputViewport.Extent,</t>
+  </si>
+  <si>
+    <t>VertexShader,</t>
+  </si>
+  <si>
+    <t>bUsePaniniProjection ? EDRF_UseTesselatedIndexBuffer : EDRF_UseTriangleOptimization);</t>
+  </si>
+  <si>
+    <t>最终渲染的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个就是屏幕的大小，如果减去一些数值，就会导致不是全屏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两个可以判断是否GPU压力比较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少后无明显变化就是CPU的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.ScreenPercentage</t>
+  </si>
+  <si>
+    <t>测试性质的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.MobileContentScaleFactor</t>
+  </si>
+  <si>
+    <t>实际可以用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改的底层的FrameBuffer等，还涉及到屏幕点击的位置缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int32_t HandleInputCB(struct android_app* app, AInputEvent* event)</t>
+  </si>
+  <si>
+    <t>屏幕点击事件回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(void) HandleTouches:(NSSet*)Touches ofType:(TouchType)Type</t>
+  </si>
+  <si>
+    <t>IOSView.cpp</t>
+  </si>
+  <si>
+    <t>// View may have been modified via Cvars ("r.mobile.DesiredResX/Y" or CommandLine "mcfs, mobileresx/y"</t>
+  </si>
+  <si>
+    <t>CGPoint ViewSizeModifier = CGPointMake(_ViewSize.width/self.frame.size.width, _ViewSize.height/self.frame.size.height);</t>
+  </si>
+  <si>
+    <t>Loc.x *= ViewSizeModifier.x;</t>
+  </si>
+  <si>
+    <t>Loc.y *= ViewSizeModifier.y;</t>
+  </si>
+  <si>
+    <t>PrevLoc.x *= ViewSizeModifier.x;</t>
+  </si>
+  <si>
+    <t>PrevLoc.y *= ViewSizeModifier.y;</t>
+  </si>
+  <si>
+    <t>按照实际的缩放，对位置进行修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (size_t i = 0; i &lt; pointerCount; ++i)</t>
+  </si>
+  <si>
+    <t>int pointerId = AMotionEvent_getPointerId(event, i);</t>
+  </si>
+  <si>
+    <t>float x = FMath::Min&lt;float&gt;(AMotionEvent_getX(event, i) / Width, 1.f);</t>
+  </si>
+  <si>
+    <t>x *= (ScreenRect.Right - 1);</t>
+  </si>
+  <si>
+    <t>float y = FMath::Min&lt;float&gt;(AMotionEvent_getY(event, i) / Height, 1.f);</t>
+  </si>
+  <si>
+    <t>y *= (ScreenRect.Bottom - 1);</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogAndroid, Verbose, TEXT("Received motion event from index %u (id %d) action %d: (%.2f, %.2f)"), i, pointerId, action, x, y);</t>
+  </si>
+  <si>
+    <t>TouchInput TouchMessage;</t>
+  </si>
+  <si>
+    <t>TouchMessage.DeviceId= device;</t>
+  </si>
+  <si>
+    <t>TouchMessage.Handle = pointerId;</t>
+  </si>
+  <si>
+    <t>TouchMessage.Type = type;</t>
+  </si>
+  <si>
+    <t>TouchMessage.Position = FVector2D(x, y);</t>
+  </si>
+  <si>
+    <t>TouchMessage.LastPosition = FVector2D(x, y);</t>
+  </si>
+  <si>
+    <t>//@todo android: AMotionEvent_getHistoricalRawX</t>
+  </si>
+  <si>
+    <t>TouchesArray.Add(TouchMessage);</t>
+  </si>
+  <si>
+    <t>FAndroidInputInterface::QueueTouchInput(TouchesArray);</t>
+  </si>
+  <si>
+    <t>！！！坐标缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +435,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +718,723 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFFB42F-F2D3-4641-8661-A66B6F8D1F74}">
+  <dimension ref="B3:S115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E47" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D105" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>65</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F6972D-A1FD-408A-BF4A-21AF811BA6BB}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C96725C-EDAB-4C5E-A23D-87AC525A4776}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2228D2-9CA6-4E2B-9B46-3A3ECAD85332}">
+  <dimension ref="A4:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E7653E-D3F5-459E-947D-561F7BC42614}">
+  <dimension ref="B3:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>